--- a/dtpu_configurations/only_integer16/30mhz/mxu_8x8/timing.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_8x8/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>14.675520896911621</v>
+        <v>13.221656799316406</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.008568479679524899</v>
+        <v>0.015460521914064884</v>
       </c>
     </row>
   </sheetData>
